--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col3a1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col3a1-Mag.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.62966433333333</v>
+        <v>22.628972</v>
       </c>
       <c r="H2">
-        <v>64.888993</v>
+        <v>67.886916</v>
       </c>
       <c r="I2">
-        <v>0.004276908378962984</v>
+        <v>0.004372730881336598</v>
       </c>
       <c r="J2">
-        <v>0.004276908378962984</v>
+        <v>0.004372730881336598</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.9381496666666668</v>
+        <v>0.232947</v>
       </c>
       <c r="N2">
-        <v>2.814449</v>
+        <v>0.698841</v>
       </c>
       <c r="O2">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="P2">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="Q2">
-        <v>20.29186238442856</v>
+        <v>5.271351140484001</v>
       </c>
       <c r="R2">
-        <v>182.626761459857</v>
+        <v>47.442160264356</v>
       </c>
       <c r="S2">
-        <v>0.002323702767632241</v>
+        <v>0.001124762502063636</v>
       </c>
       <c r="T2">
-        <v>0.002323702767632241</v>
+        <v>0.001124762502063636</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.62966433333333</v>
+        <v>22.628972</v>
       </c>
       <c r="H3">
-        <v>64.888993</v>
+        <v>67.886916</v>
       </c>
       <c r="I3">
-        <v>0.004276908378962984</v>
+        <v>0.004372730881336598</v>
       </c>
       <c r="J3">
-        <v>0.004276908378962984</v>
+        <v>0.004372730881336598</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7885686666666668</v>
+        <v>0.6726793333333333</v>
       </c>
       <c r="N3">
-        <v>2.365706</v>
+        <v>2.018038</v>
       </c>
       <c r="O3">
-        <v>0.4566863346753138</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="P3">
-        <v>0.4566863346753137</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="Q3">
-        <v>17.05647556378423</v>
+        <v>15.22204179897867</v>
       </c>
       <c r="R3">
-        <v>153.508280074058</v>
+        <v>136.998376190808</v>
       </c>
       <c r="S3">
-        <v>0.001953205611330743</v>
+        <v>0.003247968379272962</v>
       </c>
       <c r="T3">
-        <v>0.001953205611330742</v>
+        <v>0.003247968379272962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>14901.053223</v>
       </c>
       <c r="I4">
-        <v>0.9821456064948035</v>
+        <v>0.9598063873258337</v>
       </c>
       <c r="J4">
-        <v>0.9821456064948036</v>
+        <v>0.9598063873258338</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.9381496666666668</v>
+        <v>0.232947</v>
       </c>
       <c r="N4">
-        <v>2.814449</v>
+        <v>0.698841</v>
       </c>
       <c r="O4">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="P4">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="Q4">
-        <v>4659.806038046569</v>
+        <v>1157.051881712727</v>
       </c>
       <c r="R4">
-        <v>41938.25434241912</v>
+        <v>10413.46693541454</v>
       </c>
       <c r="S4">
-        <v>0.5336131293472286</v>
+        <v>0.246883300848206</v>
       </c>
       <c r="T4">
-        <v>0.5336131293472287</v>
+        <v>0.246883300848206</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>14901.053223</v>
       </c>
       <c r="I5">
-        <v>0.9821456064948035</v>
+        <v>0.9598063873258337</v>
       </c>
       <c r="J5">
-        <v>0.9821456064948036</v>
+        <v>0.9598063873258338</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7885686666666668</v>
+        <v>0.6726793333333333</v>
       </c>
       <c r="N5">
-        <v>2.365706</v>
+        <v>2.018038</v>
       </c>
       <c r="O5">
-        <v>0.4566863346753138</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="P5">
-        <v>0.4566863346753137</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="Q5">
-        <v>3916.834557330049</v>
+        <v>3341.210182670719</v>
       </c>
       <c r="R5">
-        <v>35251.51101597044</v>
+        <v>30070.89164403647</v>
       </c>
       <c r="S5">
-        <v>0.4485324771475749</v>
+        <v>0.7129230864776277</v>
       </c>
       <c r="T5">
-        <v>0.4485324771475749</v>
+        <v>0.7129230864776278</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>66.41617433333334</v>
+        <v>182.6322073333333</v>
       </c>
       <c r="H6">
-        <v>199.248523</v>
+        <v>547.896622</v>
       </c>
       <c r="I6">
-        <v>0.01313269998680206</v>
+        <v>0.0352911079183418</v>
       </c>
       <c r="J6">
-        <v>0.01313269998680206</v>
+        <v>0.0352911079183418</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.9381496666666668</v>
+        <v>0.232947</v>
       </c>
       <c r="N6">
-        <v>2.814449</v>
+        <v>0.698841</v>
       </c>
       <c r="O6">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="P6">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="Q6">
-        <v>62.30831181209191</v>
+        <v>42.543624801678</v>
       </c>
       <c r="R6">
-        <v>560.7748063088271</v>
+        <v>382.892623215102</v>
       </c>
       <c r="S6">
-        <v>0.007135175365438884</v>
+        <v>0.009077648709700323</v>
       </c>
       <c r="T6">
-        <v>0.007135175365438885</v>
+        <v>0.009077648709700323</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>66.41617433333334</v>
+        <v>182.6322073333333</v>
       </c>
       <c r="H7">
-        <v>199.248523</v>
+        <v>547.896622</v>
       </c>
       <c r="I7">
-        <v>0.01313269998680206</v>
+        <v>0.0352911079183418</v>
       </c>
       <c r="J7">
-        <v>0.01313269998680206</v>
+        <v>0.0352911079183418</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7885686666666668</v>
+        <v>0.6726793333333333</v>
       </c>
       <c r="N7">
-        <v>2.365706</v>
+        <v>2.018038</v>
       </c>
       <c r="O7">
-        <v>0.4566863346753138</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="P7">
-        <v>0.4566863346753137</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="Q7">
-        <v>52.37371403913757</v>
+        <v>122.8529114741818</v>
       </c>
       <c r="R7">
-        <v>471.3634263522382</v>
+        <v>1105.676203267636</v>
       </c>
       <c r="S7">
-        <v>0.005997524621363173</v>
+        <v>0.02621345920864148</v>
       </c>
       <c r="T7">
-        <v>0.005997524621363173</v>
+        <v>0.02621345920864148</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.249417666666667</v>
+        <v>2.741590666666667</v>
       </c>
       <c r="H8">
-        <v>6.748253</v>
+        <v>8.224772</v>
       </c>
       <c r="I8">
-        <v>0.0004447851394313067</v>
+        <v>0.00052977387448787</v>
       </c>
       <c r="J8">
-        <v>0.0004447851394313068</v>
+        <v>0.00052977387448787</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.9381496666666668</v>
+        <v>0.232947</v>
       </c>
       <c r="N8">
-        <v>2.814449</v>
+        <v>0.698841</v>
       </c>
       <c r="O8">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="P8">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="Q8">
-        <v>2.110290434177445</v>
+        <v>0.6386453210280001</v>
       </c>
       <c r="R8">
-        <v>18.992613907597</v>
+        <v>5.747807889252</v>
       </c>
       <c r="S8">
-        <v>0.0002416578443863749</v>
+        <v>0.0001362694857669324</v>
       </c>
       <c r="T8">
-        <v>0.0002416578443863749</v>
+        <v>0.0001362694857669324</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.249417666666667</v>
+        <v>2.741590666666667</v>
       </c>
       <c r="H9">
-        <v>6.748253</v>
+        <v>8.224772</v>
       </c>
       <c r="I9">
-        <v>0.0004447851394313067</v>
+        <v>0.00052977387448787</v>
       </c>
       <c r="J9">
-        <v>0.0004447851394313068</v>
+        <v>0.00052977387448787</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7885686666666668</v>
+        <v>0.6726793333333333</v>
       </c>
       <c r="N9">
-        <v>2.365706</v>
+        <v>2.018038</v>
       </c>
       <c r="O9">
-        <v>0.4566863346753138</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="P9">
-        <v>0.4566863346753137</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="Q9">
-        <v>1.773820290179778</v>
+        <v>1.844211381926222</v>
       </c>
       <c r="R9">
-        <v>15.964382611618</v>
+        <v>16.597902437336</v>
       </c>
       <c r="S9">
-        <v>0.0002031272950449318</v>
+        <v>0.0003935043887209376</v>
       </c>
       <c r="T9">
-        <v>0.0002031272950449318</v>
+        <v>0.0003935043887209376</v>
       </c>
     </row>
   </sheetData>
